--- a/input/ResearchPapers/List-of-Articles.xlsx
+++ b/input/ResearchPapers/List-of-Articles.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\metalman\Desktop\git\CREA-GPT5-CaseStudy-Results\input\ResearchPapers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A2F42E-88F0-43D7-82DA-AB1ABD567001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29DD2D5-26D9-452C-A77C-11D222E03203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="191">
   <si>
     <t>ID</t>
   </si>
@@ -61,25 +61,6 @@
   </si>
   <si>
     <t>Although Blockchain Technology (BCT) is widely acknowledged for its disruptive potential in reshaping in- dustries through decentralization and enhanced security, its adoption has been slower than anticipated. To address this gap, this secondary study examines 21 recently published surveys on BCT acceptance. While existing literature confirms the critical role of trust in BCT acceptance, our study examines its effect in detail, focusing on the role it plays in the theoretical acceptance models — whether as a predictor, mediator, or mod- erator. This research contributes to a deeper understanding of the BCT adoption process, which is essential for effective policy-making and defining and implementing digital transformation strategies within organizations.</t>
-  </si>
-  <si>
-    <t>2024 RDJ</t>
-  </si>
-  <si>
-    <t>I. Rychkova, R. Deneckere, and S. Jeyakumaran, “Conformité au RGPD dans les Pratiques de Gestion des Processus Métier : Revue Systématique de la Littérature,” Revue ouverte d’ingénierie des systèmes d’information, vol. 4, no. Special, 2024, doi: 10.21494/ISTE.OP.2024.1140.</t>
-  </si>
-  <si>
-    <t>10.21494/ISTE.OP.2024.1140</t>
-  </si>
-  <si>
-    <t>Business process, conformance, integration, adoption, privacy, GDPR, BPM</t>
-  </si>
-  <si>
-    <t>The General Data Protection Regulation (GDPR) dramatically affects the way organizations approach data
-privacy, forcing them to rethink and upgrade their business processes in order to comply with GDPR. Through this
-systematic literature review (SLR) we examine the primary studies, identify the research carried out and the methods that
-are proposed, applied and integrated into a business process life cycle (as defined by BPM) to cope with this new
-regulation.</t>
   </si>
   <si>
     <t>2024 RKHPNS</t>
@@ -515,9 +496,6 @@
     <t>Large enterprises need to coordinate the IT initiatives that exist in different organisational units of the enterprise. If these initia- tives are not coordinated, the resulting IT system is likely to become difficult to use and expensive to develop/maintain. Enterprise architec- ture methods are designed for that purpose. We report on the use of a service-oriented enterprise architecture method, called SEAM, in the context of a mid-size university. The originality of SEAM is its service orientation and the recursive modeling from business down to systems. Using SEAM, we develop a service model of the overall organisation. The model is stored in a web-based tool. We also propose a concrete im- plementation of architectural principles described in the literature. This principles help build an integrated IT system. The paper explains the background of this project and the current progresses. This approach il- lustrates how enterprises can build a common view for their IT resources.</t>
   </si>
   <si>
-    <t>2013 BBRW</t>
-  </si>
-  <si>
     <t>B. Bajic-Bizumic, I. Rychkova, and A. Wegmann, “Simulation-Driven Approach for Business Rules Discovery,” in Advanced Information Systems Engineering Workshops - CAiSE 2013 International Workshops, Valencia, Spain, June 17-21, 2013. Proceedings, 2013, vol. 148, pp. 111–123. doi: 10.1007/978-3-642-38490-5\_9.</t>
   </si>
   <si>
@@ -643,18 +621,6 @@
     <t>Business process modeling is a valuable technique helping organizations to specify their processes, to analyze their structure and to improve their performance. Conventional process modeling techniques are proven to be inefficient while dealing with non-repetitive, knowledge-intensive processes such as Case Management processes. In this work we use the MAP notation to model a Mortgage Approval Process as defined in Banking. To increase the navigability and practical value of map models, we extend the MAP notation with the concepts of Roles, Relations between roles, and Role Configuration Rules.</t>
   </si>
   <si>
-    <t>2011 BRY</t>
-  </si>
-  <si>
-    <t>J. Barjis, I. Rychkova, and L. Yilmaz, “Modeling and simulation driven software development,” in 2011 Spring Simulation Multi-conference, SpringSim ’11, Boston, MA, USA, April 03-07, 2011. Volume 5: Proceedings of the 2011 Emerging M&amp;S Applications in Industry and Academia Symposium (EAIA), 2011, pp. 4–10. [Online]. Available: http://dl.acm.org/citation.cfm?id=2048515</t>
-  </si>
-  <si>
-    <t>flexibility, declarative specifications, BPM</t>
-  </si>
-  <si>
-    <t>Modeling and simulation takes significant efforts and the results of these efforts are often underutilized in the subsequent phases of software development. In particular, the code generated in the simulation model can be a basis for further software development. In this paper, we discuss a theoretical and conceptual framework for software development based on the codes generated in a simulation environment. As business process modeling plays a departure role, in this paper, we pay attention to both conventional process modeling, i.e., imperative modeling based on explicit control flow, and unstructured process handling. i.e., declarative modeling based on circumstantial information. Since a simulation environment has the advantage of conducting experiments in regard to certain aspects or characteristics of a system, we also discus robustness and resilience of system performance in relation to fluctuating input, utilization of resources, and environmental uncertainties. A robust system is one that can withstand environmental disturbance without substantially losing ability to perform its operational mission, while a resilient system has the capability to rapidly recover its optimal performance.</t>
-  </si>
-  <si>
     <t>2010 GRN</t>
   </si>
   <si>
@@ -703,6 +669,12 @@
   </si>
   <si>
     <t>H. Li and I. Rychkova, “Understanding Trust Formation in GPT Services: An Empirical Study,” RCIS 2025 Workshops and Research Projects Track. 20 - 23 May, 2025. Seville, Spain, 2025. [Online]. Available: https://ceur-ws.org/Vol-3987/paper2.pdf</t>
+  </si>
+  <si>
+    <t>2013 BBRWa</t>
+  </si>
+  <si>
+    <t>2013 BBRWb</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1007,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1059,10 +1031,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -1070,7 +1042,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -1096,7 +1068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1113,7 +1085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1130,7 +1102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1147,7 +1119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -1181,7 +1153,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
@@ -1198,28 +1170,28 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1229,7 +1201,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>50</v>
       </c>
@@ -1246,7 +1218,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
@@ -1263,7 +1235,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>60</v>
       </c>
@@ -1280,28 +1252,28 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1311,7 +1283,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>74</v>
       </c>
@@ -1322,30 +1294,30 @@
         <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="285" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>83</v>
       </c>
@@ -1362,42 +1334,42 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1407,7 +1379,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>101</v>
       </c>
@@ -1424,7 +1396,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>106</v>
       </c>
@@ -1441,28 +1413,28 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1472,35 +1444,35 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>128</v>
       </c>
@@ -1519,173 +1491,176 @@
     </row>
     <row r="30" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="D33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="2" t="s">
+    </row>
+    <row r="35" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E35" s="2" t="s">
+    </row>
+    <row r="36" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E36" s="2" t="s">
+    </row>
+    <row r="37" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E37" s="2" t="s">
+    </row>
+    <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E38" s="2" t="s">
+    </row>
+    <row r="39" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>180</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -1695,52 +1670,18 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
